--- a/data/trans_dic/P17G_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.04805790185676124</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05197689616467626</v>
+        <v>0.05197689616467625</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.03281669616539316</v>
@@ -685,7 +685,7 @@
         <v>0.04752425390775548</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06014354852854701</v>
+        <v>0.060143548528547</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.03582876459108311</v>
@@ -697,7 +697,7 @@
         <v>0.04781961588006005</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0558157508372903</v>
+        <v>0.05581575083729029</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02197639406965305</v>
+        <v>0.02219402441524112</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01695914920861672</v>
+        <v>0.01661752992638169</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02912786306285966</v>
+        <v>0.03010915440454576</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03477251447741078</v>
+        <v>0.03303309690995404</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01672532004134588</v>
+        <v>0.01790291861044995</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02421964058223106</v>
+        <v>0.02470875811173275</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02813285668716461</v>
+        <v>0.02756346214000897</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04404132075890443</v>
+        <v>0.04374776626261969</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02450599706919352</v>
+        <v>0.02372808423263099</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02449527563558949</v>
+        <v>0.02454754408349204</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03278230614158286</v>
+        <v>0.03397286207466171</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04352951571745385</v>
+        <v>0.04367433545673381</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06046647799901952</v>
+        <v>0.05930685664454671</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05388272750651441</v>
+        <v>0.05452950902519737</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07418155835483767</v>
+        <v>0.07368104972135865</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07660414204216945</v>
+        <v>0.0752569013878169</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05900738686018126</v>
+        <v>0.05746493562376159</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07169113979642376</v>
+        <v>0.07377351920417916</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07525312727082392</v>
+        <v>0.07546754088578575</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08136222480734254</v>
+        <v>0.07962574780328877</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05274130201442187</v>
+        <v>0.05095734143615647</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05325220005494572</v>
+        <v>0.05381921371953851</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0638322611756152</v>
+        <v>0.06630400893636078</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0721799127689292</v>
+        <v>0.07196485210521174</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.04251180249683484</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03777171800984946</v>
+        <v>0.03777171800984945</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02632641971101456</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005635233314888763</v>
+        <v>0.005705995302451202</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02899230631840386</v>
+        <v>0.02883056616892829</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02503949422207012</v>
+        <v>0.02517649170294322</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02334022391850654</v>
+        <v>0.02223143784184762</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01072832152296668</v>
+        <v>0.01150464751361882</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01269887477918788</v>
+        <v>0.01173261101180986</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01083698061330536</v>
+        <v>0.01054254302594023</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03390806041507397</v>
+        <v>0.03277429002375909</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0120681994891843</v>
+        <v>0.01276201572381085</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0263175763585652</v>
+        <v>0.02701234982907508</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02151303593479357</v>
+        <v>0.02049161945550718</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03143063626234979</v>
+        <v>0.03147686339171717</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03326347748184707</v>
+        <v>0.0328451064882466</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07539852665490841</v>
+        <v>0.07664613661083763</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06756953911505072</v>
+        <v>0.06811953424165468</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05657927988355591</v>
+        <v>0.05680246868479894</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04867191689613824</v>
+        <v>0.04804559575582151</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06026878733008122</v>
+        <v>0.05801084463806123</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04191767778756372</v>
+        <v>0.04103754957220308</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07074314627625432</v>
+        <v>0.06822207753996856</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03359856486219295</v>
+        <v>0.03503521924515167</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05974663780700323</v>
+        <v>0.05871092754018774</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04737670852870794</v>
+        <v>0.04672547196664809</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05588171444532664</v>
+        <v>0.05677968940209543</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01219973296359488</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.003890986114153499</v>
+        <v>0.003890986114153498</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02617118052224461</v>
@@ -957,7 +957,7 @@
         <v>0.01953414949389054</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.02487530944955553</v>
+        <v>0.02487530944955554</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.01761242995703663</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006846979899617442</v>
+        <v>0.006454345774123668</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003928758491547609</v>
+        <v>0.004545969521879009</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006799599882406309</v>
+        <v>0.005854308325492496</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.004015926599554996</v>
+        <v>0.004022142264049101</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005755103145775205</v>
+        <v>0.005808383171614371</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01085272204335578</v>
+        <v>0.01041837964037774</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01002257529149558</v>
+        <v>0.009914772497743658</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.002246227936346329</v>
+        <v>0.002357162948047237</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.006310684635843694</v>
+        <v>0.006698027529406149</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.004758146919598451</v>
+        <v>0.004745444390196387</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02945244889789851</v>
+        <v>0.02823679228609211</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.00987946076039972</v>
+        <v>0.009460788107284221</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02781380195540707</v>
+        <v>0.02755531501960543</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01227182964346737</v>
+        <v>0.01404506244473051</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06147546918211127</v>
+        <v>0.06206883910185242</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03925345944307802</v>
+        <v>0.03956577249211841</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05933140102788602</v>
+        <v>0.05151150585878203</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04809247384682119</v>
+        <v>0.04666446496859155</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03262171585488149</v>
+        <v>0.03091708021236151</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01386969598646145</v>
+        <v>0.01394390448136343</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02621764046728382</v>
+        <v>0.0286629430978732</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01949440794896427</v>
+        <v>0.01840829153018808</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.01510453050313271</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.010442604606409</v>
+        <v>0.01044260460640901</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.01148639994050482</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005202580348650977</v>
+        <v>0.004948863838757807</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003773407102985686</v>
+        <v>0.004167742808120404</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004676729804839521</v>
+        <v>0.00425352835892279</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.007662664354587971</v>
+        <v>0.007456959148734294</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.007652165216973386</v>
+        <v>0.007973742797940275</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.005245175434359726</v>
+        <v>0.005411506892445075</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.006982931163830634</v>
+        <v>0.007032768813933616</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0004983221271869612</v>
+        <v>0.0004970709873810205</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.007278927775032364</v>
+        <v>0.00727544046863932</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0063969542622683</v>
+        <v>0.005990897304611922</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01807350826254304</v>
+        <v>0.01710854940902769</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.005747185700219797</v>
+        <v>0.006487937230254185</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01737496621180692</v>
+        <v>0.01812965937350666</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01995017197927492</v>
+        <v>0.01952636977048922</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02620588716013197</v>
+        <v>0.02613672319325631</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.008773543879841391</v>
+        <v>0.008422854124977459</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02678258627549743</v>
+        <v>0.02639877253465116</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01956510307286325</v>
+        <v>0.0183510989003518</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01766096138334462</v>
+        <v>0.01711861907212123</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.004479375911672085</v>
+        <v>0.004932602696896689</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01848165372160596</v>
+        <v>0.01834116231609396</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01641424356102401</v>
+        <v>0.01618096391892974</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.01104003102197278</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.008093288625461294</v>
+        <v>0.008093288625461296</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.005976271594642995</v>
@@ -1256,34 +1256,34 @@
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
-        <v>0.003389669571222357</v>
+        <v>0.003400943813212353</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.00187203011221891</v>
+        <v>0.001885515847970773</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.005058952289942248</v>
+        <v>0.004417850868961807</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.004082831702349768</v>
+        <v>0.004331281569000288</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.00213971506882265</v>
+        <v>0.002118494999594894</v>
       </c>
       <c r="L17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.005519632484849542</v>
+        <v>0.005325970884948805</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.003055526304716735</v>
+        <v>0.003047024995529738</v>
       </c>
     </row>
     <row r="18">
@@ -1294,38 +1294,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01460995424727284</v>
+        <v>0.01660754999694681</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.0193913310244142</v>
+        <v>0.01888577164544766</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.007931825680143247</v>
+        <v>0.009245108562424994</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02105985705803792</v>
+        <v>0.02002867032123019</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.009872335714957624</v>
+        <v>0.009902975557021288</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02280301856878383</v>
+        <v>0.02226252609581073</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01351738288962932</v>
+        <v>0.01353987369732731</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01385520345172489</v>
+        <v>0.01405888700702571</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.006003645349560628</v>
+        <v>0.00597299511623037</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.01678113801738168</v>
+        <v>0.01656652646230478</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.009158789330269855</v>
+        <v>0.009475431974988562</v>
       </c>
     </row>
     <row r="19">
@@ -1387,37 +1387,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.007387837620731586</v>
+        <v>0.007572439608422976</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.002971012603809059</v>
+        <v>0.002979689248485855</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.00831893380703682</v>
+        <v>0.007749859116226343</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.005531781923152683</v>
+        <v>0.005566610211088592</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.00929719428540794</v>
+        <v>0.00867322150693371</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.008004551958834415</v>
+        <v>0.008136460764608316</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.00672994984833729</v>
+        <v>0.006743178888301843</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.007925230468610454</v>
+        <v>0.007648064255653396</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.008727229351315865</v>
+        <v>0.009192855088633338</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.007641412872092464</v>
+        <v>0.007914465414220032</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0146955790905175</v>
+        <v>0.01445139382905619</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05324143139616341</v>
+        <v>0.05259727745609808</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02649930908396545</v>
+        <v>0.0286702948363647</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06429388335568878</v>
+        <v>0.05752110056418322</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02227466140989023</v>
+        <v>0.02055793424604174</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.01885461749318265</v>
+        <v>0.01886815450297547</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.02793442183993539</v>
+        <v>0.02755111044920311</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.02376016504986263</v>
+        <v>0.0248103384057501</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01755822633317574</v>
+        <v>0.0182435669478234</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.02122092897965334</v>
+        <v>0.02078246481499865</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02412691238396085</v>
+        <v>0.02441128612551166</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.02585218183086863</v>
+        <v>0.02566139916253641</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01035750295047727</v>
+        <v>0.01044655465287553</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.009041884971600196</v>
+        <v>0.009478272165395202</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01373678409816091</v>
+        <v>0.01376742248904365</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01361558533933604</v>
+        <v>0.01419830724910218</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01195690873221207</v>
+        <v>0.01232756056284649</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.008983530844609372</v>
+        <v>0.00900776820942694</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01417230507807794</v>
+        <v>0.01432638880877423</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01889657890354083</v>
+        <v>0.01838161367611953</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01253291233172313</v>
+        <v>0.0124739268282443</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.009975256760074297</v>
+        <v>0.01019352063438451</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01531877600008568</v>
+        <v>0.01528446923747422</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01760486149173479</v>
+        <v>0.01763147803172374</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01901513529105288</v>
+        <v>0.01855883524632967</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.01769062020483572</v>
+        <v>0.01764933020037687</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02405785716012166</v>
+        <v>0.02358463132007165</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.02403489239140781</v>
+        <v>0.02415034219219487</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02125408182894456</v>
+        <v>0.02115500698214215</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01654206542566141</v>
+        <v>0.01661187016213065</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02385868369022143</v>
+        <v>0.02384593721009588</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02742703683578331</v>
+        <v>0.02721240967113224</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01868542036392589</v>
+        <v>0.01873559323867097</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.01570162326204177</v>
+        <v>0.01591384024603179</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02197523350952971</v>
+        <v>0.0222128595624673</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.02433938178277268</v>
+        <v>0.02415677644681976</v>
       </c>
     </row>
     <row r="25">
@@ -1870,40 +1870,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10412</v>
+        <v>10515</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7365</v>
+        <v>7216</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12499</v>
+        <v>12920</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>19146</v>
+        <v>18189</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5129</v>
+        <v>5490</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7502</v>
+        <v>7654</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>9739</v>
+        <v>9542</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>21510</v>
+        <v>21367</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19126</v>
+        <v>18519</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>18225</v>
+        <v>18264</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>25415</v>
+        <v>26338</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>45228</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="7">
@@ -1914,40 +1914,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28648</v>
+        <v>28098</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23399</v>
+        <v>23680</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>31831</v>
+        <v>31616</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42180</v>
+        <v>41438</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18096</v>
+        <v>17623</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>22207</v>
+        <v>22852</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>26051</v>
+        <v>26125</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>39738</v>
+        <v>38890</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>41162</v>
+        <v>39770</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>39621</v>
+        <v>40042</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>49487</v>
+        <v>51403</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>74997</v>
+        <v>74774</v>
       </c>
     </row>
     <row r="8">
@@ -2050,40 +2050,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2068</v>
+        <v>2094</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12057</v>
+        <v>11990</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>9418</v>
+        <v>9470</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11278</v>
+        <v>10742</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3989</v>
+        <v>4278</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4209</v>
+        <v>3888</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4011</v>
+        <v>3902</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>14348</v>
+        <v>13868</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8916</v>
+        <v>9429</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>19667</v>
+        <v>20186</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>16055</v>
+        <v>15292</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>28487</v>
+        <v>28529</v>
       </c>
     </row>
     <row r="11">
@@ -2094,40 +2094,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12206</v>
+        <v>12052</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31357</v>
+        <v>31876</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>25416</v>
+        <v>25623</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>27340</v>
+        <v>27448</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>18099</v>
+        <v>17866</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>19974</v>
+        <v>19226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>15515</v>
+        <v>15189</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>29934</v>
+        <v>28868</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>24823</v>
+        <v>25884</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>44648</v>
+        <v>43874</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>35356</v>
+        <v>34870</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>50649</v>
+        <v>51463</v>
       </c>
     </row>
     <row r="12">
@@ -2230,40 +2230,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3714</v>
+        <v>3501</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2043</v>
+        <v>2364</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1141</v>
+        <v>982</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>943</v>
+        <v>952</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2030</v>
+        <v>1949</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>7118</v>
+        <v>7041</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1982</v>
+        <v>2080</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>4316</v>
+        <v>4581</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3134</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="15">
@@ -2274,40 +2274,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15975</v>
+        <v>15315</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6175</v>
+        <v>5914</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14464</v>
+        <v>14330</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5788</v>
+        <v>6624</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>10314</v>
+        <v>10414</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10096</v>
+        <v>10177</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9723</v>
+        <v>8442</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8996</v>
+        <v>8729</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23167</v>
+        <v>21956</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>12237</v>
+        <v>12302</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>17931</v>
+        <v>19603</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>12841</v>
+        <v>12125</v>
       </c>
     </row>
     <row r="16">
@@ -2410,40 +2410,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6424</v>
+        <v>6111</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4322</v>
+        <v>4774</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5290</v>
+        <v>4811</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5458</v>
+        <v>5311</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6288</v>
+        <v>6553</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4512</v>
+        <v>4655</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13596</v>
+        <v>13693</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>14319</v>
+        <v>14312</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>12738</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="19">
@@ -2454,40 +2454,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>22317</v>
+        <v>21125</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6597</v>
+        <v>7447</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19902</v>
+        <v>20766</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22567</v>
+        <v>22088</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18666</v>
+        <v>18616</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>6692</v>
+        <v>6425</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>22010</v>
+        <v>21694</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>16829</v>
+        <v>15785</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>34387</v>
+        <v>33331</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>8559</v>
+        <v>9425</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>36358</v>
+        <v>36081</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>32686</v>
+        <v>32221</v>
       </c>
     </row>
     <row r="20">
@@ -2594,34 +2594,34 @@
       </c>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="n">
-        <v>2092</v>
+        <v>2099</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3701</v>
+        <v>3232</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3390</v>
+        <v>3597</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1963</v>
+        <v>1944</v>
       </c>
       <c r="L22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>7444</v>
+        <v>7183</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4270</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="23">
@@ -2632,38 +2632,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5096</v>
+        <v>5793</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>11966</v>
+        <v>11654</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>4498</v>
+        <v>5243</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>11978</v>
+        <v>11391</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7478</v>
+        <v>7501</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>16683</v>
+        <v>16287</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>11224</v>
+        <v>11243</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>12713</v>
+        <v>12900</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>7607</v>
+        <v>7568</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>22632</v>
+        <v>22343</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>12799</v>
+        <v>13241</v>
       </c>
     </row>
     <row r="24">
@@ -2769,37 +2769,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1950</v>
+        <v>1999</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>10388</v>
+        <v>9678</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>6093</v>
+        <v>6131</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>10005</v>
+        <v>9334</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>6741</v>
+        <v>6852</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>10405</v>
+        <v>10426</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>10821</v>
+        <v>10443</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>11889</v>
+        <v>12524</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>8248</v>
+        <v>8542</v>
       </c>
     </row>
     <row r="27">
@@ -2810,40 +2810,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4370</v>
+        <v>4297</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14056</v>
+        <v>13886</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7583</v>
+        <v>8204</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>15252</v>
+        <v>13646</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>27816</v>
+        <v>25672</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>20766</v>
+        <v>20781</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>30062</v>
+        <v>29649</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>20008</v>
+        <v>20893</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>27147</v>
+        <v>28207</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>28975</v>
+        <v>28377</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>32869</v>
+        <v>33256</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>27903</v>
+        <v>27697</v>
       </c>
     </row>
     <row r="28">
@@ -2946,40 +2946,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>33807</v>
+        <v>34098</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>30713</v>
+        <v>32195</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>46347</v>
+        <v>46450</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>46850</v>
+        <v>48855</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>40368</v>
+        <v>41619</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>31622</v>
+        <v>31707</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>49741</v>
+        <v>50282</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>68618</v>
+        <v>66748</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>83220</v>
+        <v>82829</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>68996</v>
+        <v>70506</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>105449</v>
+        <v>105213</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>124504</v>
+        <v>124692</v>
       </c>
     </row>
     <row r="31">
@@ -2990,40 +2990,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>62066</v>
+        <v>60577</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>60090</v>
+        <v>59950</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>81170</v>
+        <v>79573</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>82702</v>
+        <v>83099</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>71756</v>
+        <v>71422</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>58228</v>
+        <v>58474</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>83738</v>
+        <v>83693</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>99593</v>
+        <v>98814</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>124074</v>
+        <v>124407</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>108604</v>
+        <v>110071</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>151270</v>
+        <v>152906</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>172131</v>
+        <v>170840</v>
       </c>
     </row>
     <row r="32">
